--- a/TestDataMappingSheet (1).xlsx
+++ b/TestDataMappingSheet (1).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nitthakur\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65509DF5-CE0E-44CC-BD65-ED6127F35E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612973B3-B79A-4E22-8563-C3C00D016490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{18A7C327-5B8D-4B31-B580-26C34A84F139}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="184">
   <si>
     <t>ScreenName</t>
   </si>
@@ -579,6 +579,15 @@
   </si>
   <si>
     <t>TribalPlacementPreferences</t>
+  </si>
+  <si>
+    <t>YouthPlacementPreferences</t>
+  </si>
+  <si>
+    <t>PlacementNeeds</t>
+  </si>
+  <si>
+    <t>ParentGuardPlacementPreferences</t>
   </si>
 </sst>
 </file>
@@ -981,17 +990,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D4C97-5673-4297-B1EA-6BBD2023C51C}">
-  <dimension ref="A1:E170"/>
+  <dimension ref="A1:E173"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="34.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.1796875" customWidth="1"/>
     <col min="4" max="4" width="18.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.08984375" bestFit="1" customWidth="1"/>
   </cols>
@@ -3391,8 +3400,51 @@
         <v>1</v>
       </c>
     </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>183</v>
+      </c>
+      <c r="B171" t="s">
+        <v>120</v>
+      </c>
+      <c r="C171" t="s">
+        <v>183</v>
+      </c>
+      <c r="D171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" t="s">
+        <v>181</v>
+      </c>
+      <c r="B172" t="s">
+        <v>120</v>
+      </c>
+      <c r="C172" t="s">
+        <v>181</v>
+      </c>
+      <c r="D172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" t="s">
+        <v>182</v>
+      </c>
+      <c r="B173" t="s">
+        <v>120</v>
+      </c>
+      <c r="C173" t="s">
+        <v>182</v>
+      </c>
+      <c r="D173">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
